--- a/capiq_data/in_process_data/IQ107405.xlsx
+++ b/capiq_data/in_process_data/IQ107405.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303705D9-839A-4803-BFC1-B7371032D9D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9B391D-77B7-483F-8137-CD54E7B64E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5ab9f982-4d37-41b5-8603-4311d6f26f15"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"df7f2d94-acd7-4619-800e-a6b1b855f891"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-20.399999999999999</v>
+        <v>49.860999999999997</v>
       </c>
       <c r="D2">
-        <v>788.2</v>
+        <v>887.66300000000001</v>
       </c>
       <c r="E2">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>122.8</v>
+        <v>174.47900000000001</v>
       </c>
       <c r="G2">
-        <v>5468.9</v>
+        <v>2566.7800000000002</v>
       </c>
       <c r="H2">
-        <v>5726.7</v>
+        <v>2884.723</v>
       </c>
       <c r="I2">
-        <v>127.5</v>
+        <v>367.541</v>
       </c>
       <c r="J2">
-        <v>1852</v>
+        <v>1406.72</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +889,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-129</v>
+        <v>-105.251</v>
       </c>
       <c r="N2">
-        <v>574.29999999999995</v>
+        <v>449.62099999999998</v>
       </c>
       <c r="O2">
-        <v>3136.1</v>
+        <v>1856.3409999999999</v>
       </c>
       <c r="P2">
-        <v>2050.6999999999998</v>
+        <v>1484.9670000000001</v>
       </c>
       <c r="Q2">
-        <v>-88.2</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2590.6</v>
+        <v>1028.3820000000001</v>
       </c>
       <c r="U2">
-        <v>1200.0999999999999</v>
+        <v>62.828000000000003</v>
       </c>
       <c r="V2">
-        <v>49.5</v>
+        <v>-82.328999999999994</v>
       </c>
       <c r="W2">
-        <v>-12</v>
+        <v>-2.702</v>
       </c>
       <c r="X2">
-        <v>-140.5</v>
+        <v>95.497</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-2.0219999999999998</v>
       </c>
       <c r="AA2">
-        <v>-20.399999999999999</v>
+        <v>49.860999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>27.8</v>
+        <v>51.581000000000003</v>
       </c>
       <c r="D3">
-        <v>751.1</v>
+        <v>906.83600000000001</v>
       </c>
       <c r="E3">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>120.7</v>
+        <v>183.93700000000001</v>
       </c>
       <c r="G3">
-        <v>5359.4</v>
+        <v>2788.297</v>
       </c>
       <c r="H3">
-        <v>5621.3</v>
+        <v>3126.9740000000002</v>
       </c>
       <c r="I3">
-        <v>154.1</v>
+        <v>350.25200000000001</v>
       </c>
       <c r="J3">
-        <v>1783.3</v>
+        <v>1588.913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>594.6</v>
+        <v>457.53899999999999</v>
       </c>
       <c r="O3">
-        <v>3010.9</v>
+        <v>2046.452</v>
       </c>
       <c r="P3">
-        <v>2004.3</v>
+        <v>1691.723</v>
       </c>
       <c r="Q3">
-        <v>-140</v>
+        <v>47.018999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2610.4</v>
+        <v>1080.5219999999999</v>
       </c>
       <c r="U3">
-        <v>1064.8</v>
+        <v>118.276</v>
       </c>
       <c r="V3">
-        <v>-70.599999999999994</v>
+        <v>-144.16</v>
       </c>
       <c r="W3">
-        <v>-12</v>
+        <v>-3.4039999999999999</v>
       </c>
       <c r="X3">
-        <v>-68.900000000000006</v>
+        <v>198.31</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>27.8</v>
+        <v>51.581000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>28.6</v>
+        <v>68.802999999999997</v>
       </c>
       <c r="D4">
-        <v>999.2</v>
+        <v>1120.981</v>
       </c>
       <c r="E4">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>167.9</v>
+        <v>226.29900000000001</v>
       </c>
       <c r="G4">
-        <v>5243.9</v>
+        <v>2967.2739999999999</v>
       </c>
       <c r="H4">
-        <v>5504.8</v>
+        <v>3334.9679999999998</v>
       </c>
       <c r="I4">
-        <v>181.7</v>
+        <v>400.80200000000002</v>
       </c>
       <c r="J4">
-        <v>1658.1</v>
+        <v>1625.924</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>590.6</v>
+        <v>560.96699999999998</v>
       </c>
       <c r="O4">
-        <v>2911.2</v>
+        <v>2186.8910000000001</v>
       </c>
       <c r="P4">
-        <v>1880.4</v>
+        <v>1781.1610000000001</v>
       </c>
       <c r="Q4">
-        <v>-240.1</v>
+        <v>-44.744</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2593.6</v>
+        <v>1148.077</v>
       </c>
       <c r="U4">
-        <v>824.2</v>
+        <v>60.439</v>
       </c>
       <c r="V4">
-        <v>-54.2</v>
+        <v>-56.454000000000001</v>
       </c>
       <c r="W4">
-        <v>-11.9</v>
+        <v>-3.7789999999999999</v>
       </c>
       <c r="X4">
-        <v>-169.1</v>
+        <v>70.8</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-6.8</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AA4">
-        <v>28.7</v>
+        <v>68.802999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>35.799999999999997</v>
+        <v>86.763999999999996</v>
       </c>
       <c r="D5">
-        <v>1098.3</v>
+        <v>1540.0340000000001</v>
       </c>
       <c r="E5">
-        <v>19.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>179.3</v>
+        <v>298.65100000000001</v>
       </c>
       <c r="G5">
-        <v>5160.6000000000004</v>
+        <v>3266.4749999999999</v>
       </c>
       <c r="H5">
-        <v>5358.4</v>
+        <v>3652.19</v>
       </c>
       <c r="I5">
-        <v>154</v>
+        <v>498.57600000000002</v>
       </c>
       <c r="J5">
-        <v>1588.1</v>
+        <v>1701.6890000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>495.9</v>
+        <v>691.39</v>
       </c>
       <c r="O5">
-        <v>2734.9</v>
+        <v>2393.0790000000002</v>
       </c>
       <c r="P5">
-        <v>1704.6</v>
+        <v>1884.33</v>
       </c>
       <c r="Q5">
-        <v>-108.4</v>
+        <v>157.87700000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>3010</v>
+        <v>4342</v>
       </c>
       <c r="T5">
-        <v>2623.5</v>
+        <v>1259.1110000000001</v>
       </c>
       <c r="U5">
-        <v>715.5</v>
+        <v>232.30500000000001</v>
       </c>
       <c r="V5">
-        <v>90.2</v>
+        <v>227.65899999999999</v>
       </c>
       <c r="W5">
-        <v>-11.9</v>
+        <v>-3.843</v>
       </c>
       <c r="X5">
-        <v>-193.8</v>
+        <v>-45.314999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-2.6</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="AA5">
-        <v>35.799999999999997</v>
+        <v>86.763999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>27.7</v>
+        <v>73.427999999999997</v>
       </c>
       <c r="D6">
-        <v>906.6</v>
+        <v>1159.8900000000001</v>
       </c>
       <c r="E6">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>154.19999999999999</v>
+        <v>239.67</v>
       </c>
       <c r="G6">
-        <v>5167.5</v>
+        <v>3245.922</v>
       </c>
       <c r="H6">
-        <v>5363.4</v>
+        <v>3660.806</v>
       </c>
       <c r="I6">
-        <v>143.4</v>
+        <v>465.61700000000002</v>
       </c>
       <c r="J6">
-        <v>1582.3</v>
+        <v>1699.8989999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1221,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-12.6</v>
+        <v>-484.66199999999998</v>
       </c>
       <c r="N6">
-        <v>498.8</v>
+        <v>628.25199999999995</v>
       </c>
       <c r="O6">
-        <v>2711.1</v>
+        <v>2328.1509999999998</v>
       </c>
       <c r="P6">
-        <v>1728.3</v>
+        <v>1854.6849999999999</v>
       </c>
       <c r="Q6">
-        <v>5.5</v>
+        <v>-207.3</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2652.3</v>
+        <v>1332.655</v>
       </c>
       <c r="U6">
-        <v>721.1</v>
+        <v>22.076000000000001</v>
       </c>
       <c r="V6">
-        <v>-1.7</v>
+        <v>-165.76300000000001</v>
       </c>
       <c r="W6">
-        <v>-11.9</v>
+        <v>-3.8450000000000002</v>
       </c>
       <c r="X6">
-        <v>9.6</v>
+        <v>-35.000999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>27.7</v>
+        <v>73.427999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>40.6</v>
+        <v>88.930999999999997</v>
       </c>
       <c r="D7">
-        <v>961.2</v>
+        <v>1600.0650000000001</v>
       </c>
       <c r="E7">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>172.9</v>
+        <v>291.92099999999999</v>
       </c>
       <c r="G7">
-        <v>5287.7</v>
+        <v>4593.183</v>
       </c>
       <c r="H7">
-        <v>5484.9</v>
+        <v>5596.6540000000005</v>
       </c>
       <c r="I7">
-        <v>166.1</v>
+        <v>629.93200000000002</v>
       </c>
       <c r="J7">
-        <v>1421.2</v>
+        <v>2748.1970000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>724.7</v>
+        <v>787.83900000000006</v>
       </c>
       <c r="O7">
-        <v>2781.9</v>
+        <v>3536.0360000000001</v>
       </c>
       <c r="P7">
-        <v>1756.7</v>
+        <v>2896.3539999999998</v>
       </c>
       <c r="Q7">
-        <v>-58.3</v>
+        <v>157.74600000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2703</v>
+        <v>2060.6179999999999</v>
       </c>
       <c r="U7">
-        <v>662.2</v>
+        <v>176.24100000000001</v>
       </c>
       <c r="V7">
-        <v>-77.7</v>
+        <v>104.893</v>
       </c>
       <c r="W7">
-        <v>-11.9</v>
+        <v>-4.6310000000000002</v>
       </c>
       <c r="X7">
-        <v>22.6</v>
+        <v>214.11500000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>40.6</v>
+        <v>88.930999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>787.9</v>
+        <v>105.94</v>
       </c>
       <c r="D8">
-        <v>1150</v>
+        <v>1808.479</v>
       </c>
       <c r="E8">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>214.7</v>
+        <v>351.83</v>
       </c>
       <c r="G8">
-        <v>5732</v>
+        <v>4726.058</v>
       </c>
       <c r="H8">
-        <v>6657</v>
+        <v>5750.7280000000001</v>
       </c>
       <c r="I8">
-        <v>186.3</v>
+        <v>625.22500000000002</v>
       </c>
       <c r="J8">
-        <v>1776.9</v>
+        <v>2750.3330000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>734</v>
+        <v>840.702</v>
       </c>
       <c r="O8">
-        <v>3165.4</v>
+        <v>3591.0349999999999</v>
       </c>
       <c r="P8">
-        <v>2095.3000000000002</v>
+        <v>2954.9630000000002</v>
       </c>
       <c r="Q8">
-        <v>225.1</v>
+        <v>-133.79900000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3491.6</v>
+        <v>2159.6930000000002</v>
       </c>
       <c r="U8">
-        <v>884.3</v>
+        <v>42.758000000000003</v>
       </c>
       <c r="V8">
-        <v>-94.6</v>
+        <v>-172.51599999999999</v>
       </c>
       <c r="W8">
-        <v>-12</v>
+        <v>-8.8420000000000005</v>
       </c>
       <c r="X8">
-        <v>325.39999999999998</v>
+        <v>51.485999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>787.8</v>
+        <v>105.94</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>100.1</v>
+        <v>136.393</v>
       </c>
       <c r="D9">
-        <v>1336.2</v>
+        <v>2170.3969999999999</v>
       </c>
       <c r="E9">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>247.4</v>
+        <v>433.81299999999999</v>
       </c>
       <c r="G9">
-        <v>6282.3</v>
+        <v>4911.5010000000002</v>
       </c>
       <c r="H9">
-        <v>7248.2</v>
+        <v>6017.527</v>
       </c>
       <c r="I9">
-        <v>216.2</v>
+        <v>834.048</v>
       </c>
       <c r="J9">
-        <v>2133.6</v>
+        <v>2486.9760000000001</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>915.6</v>
+        <v>1090.7429999999999</v>
       </c>
       <c r="O9">
-        <v>3653.5</v>
+        <v>3726.7190000000001</v>
       </c>
       <c r="P9">
-        <v>2493.1</v>
+        <v>2878.3310000000001</v>
       </c>
       <c r="Q9">
-        <v>142.80000000000001</v>
+        <v>48.417000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>3477</v>
+        <v>5701</v>
       </c>
       <c r="T9">
-        <v>3594.7</v>
+        <v>2290.808</v>
       </c>
       <c r="U9">
-        <v>1030.4000000000001</v>
+        <v>92.105999999999995</v>
       </c>
       <c r="V9">
-        <v>-119.4</v>
+        <v>142.78899999999999</v>
       </c>
       <c r="W9">
-        <v>-12</v>
+        <v>-8.7889999999999997</v>
       </c>
       <c r="X9">
-        <v>393.9</v>
+        <v>-81.846000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-16.100000000000001</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="AA9">
-        <v>100.1</v>
+        <v>136.393</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>66.3</v>
+        <v>111.828</v>
       </c>
       <c r="D10">
-        <v>1275.0999999999999</v>
+        <v>1744.934</v>
       </c>
       <c r="E10">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>249.9</v>
+        <v>358.24799999999999</v>
       </c>
       <c r="G10">
-        <v>6377.3</v>
+        <v>5207.0209999999997</v>
       </c>
       <c r="H10">
-        <v>7347.3</v>
+        <v>6258.5919999999996</v>
       </c>
       <c r="I10">
-        <v>241.8</v>
+        <v>814.21</v>
       </c>
       <c r="J10">
-        <v>2252.6</v>
+        <v>2699.5590000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-18.399999999999999</v>
+        <v>-600.75699999999995</v>
       </c>
       <c r="N10">
-        <v>836.3</v>
+        <v>828.00099999999998</v>
       </c>
       <c r="O10">
-        <v>3734.2</v>
+        <v>3865.8960000000002</v>
       </c>
       <c r="P10">
-        <v>2593.6999999999998</v>
+        <v>3037.895</v>
       </c>
       <c r="Q10">
-        <v>-480.8</v>
+        <v>90.350999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3613.1</v>
+        <v>2392.6959999999999</v>
       </c>
       <c r="U10">
-        <v>546.4</v>
+        <v>179.995</v>
       </c>
       <c r="V10">
-        <v>-656.5</v>
+        <v>-40.484999999999999</v>
       </c>
       <c r="W10">
-        <v>-60.2</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="X10">
-        <v>23.5</v>
+        <v>144.065</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>181.3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>66.3</v>
+        <v>111.828</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>127.83499999999999</v>
       </c>
       <c r="D11">
-        <v>1431.6</v>
+        <v>1908.547</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>297.7</v>
+        <v>393.40699999999998</v>
       </c>
       <c r="G11">
-        <v>7261.9</v>
+        <v>5348.3310000000001</v>
       </c>
       <c r="H11">
-        <v>8232.5</v>
+        <v>6398.9489999999996</v>
       </c>
       <c r="I11">
-        <v>262.7</v>
+        <v>803.55499999999995</v>
       </c>
       <c r="J11">
-        <v>2855.5</v>
+        <v>2763.2640000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>982.2</v>
+        <v>973.61</v>
       </c>
       <c r="O11">
-        <v>4488.8</v>
+        <v>3906.8739999999998</v>
       </c>
       <c r="P11">
-        <v>3273</v>
+        <v>3088.877</v>
       </c>
       <c r="Q11">
-        <v>583.6</v>
+        <v>-7.2169999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3743.7</v>
+        <v>2492.0749999999998</v>
       </c>
       <c r="U11">
-        <v>1127.7</v>
+        <v>161.13900000000001</v>
       </c>
       <c r="V11">
-        <v>-183.8</v>
+        <v>20.79</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-10.269</v>
       </c>
       <c r="X11">
-        <v>681.6</v>
+        <v>-19.036999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>96.6</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>111</v>
+        <v>127.83499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>145.9</v>
+        <v>155.565</v>
       </c>
       <c r="D12">
-        <v>1692.8</v>
+        <v>2212.3870000000002</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>369.6</v>
+        <v>463.91399999999999</v>
       </c>
       <c r="G12">
-        <v>7340.8</v>
+        <v>5819.0129999999999</v>
       </c>
       <c r="H12">
-        <v>8287</v>
+        <v>6916.0590000000002</v>
       </c>
       <c r="I12">
-        <v>311.10000000000002</v>
+        <v>918.12800000000004</v>
       </c>
       <c r="J12">
-        <v>2863.9</v>
+        <v>2666.99</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>853.5</v>
+        <v>1144.317</v>
       </c>
       <c r="O12">
-        <v>4379.5</v>
+        <v>4011.3069999999998</v>
       </c>
       <c r="P12">
-        <v>3083.6</v>
+        <v>3081.0320000000002</v>
       </c>
       <c r="Q12">
-        <v>-512.5</v>
+        <v>108.764</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3907.5</v>
+        <v>2904.752</v>
       </c>
       <c r="U12">
-        <v>607.79999999999995</v>
+        <v>264.15800000000002</v>
       </c>
       <c r="V12">
-        <v>-296</v>
+        <v>-46.453000000000003</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-10.167999999999999</v>
       </c>
       <c r="X12">
-        <v>-187.5</v>
+        <v>164.26300000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>146</v>
+        <v>155.565</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>139.5</v>
+        <v>230.77199999999999</v>
       </c>
       <c r="D13">
-        <v>1859.9</v>
+        <v>2862.232</v>
       </c>
       <c r="E13">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>411.8</v>
+        <v>624.23099999999999</v>
       </c>
       <c r="G13">
-        <v>7988.8</v>
+        <v>6150.7</v>
       </c>
       <c r="H13">
-        <v>8856.4</v>
+        <v>7279.4</v>
       </c>
       <c r="I13">
-        <v>346.4</v>
+        <v>422.4</v>
       </c>
       <c r="J13">
-        <v>2508.1</v>
+        <v>2565.1999999999998</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1728.2</v>
+        <v>1297</v>
       </c>
       <c r="O13">
-        <v>4795</v>
+        <v>4112.2</v>
       </c>
       <c r="P13">
-        <v>3509</v>
+        <v>2963.2</v>
       </c>
       <c r="Q13">
-        <v>300.3</v>
+        <v>286.702</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>4609</v>
+        <v>6348</v>
       </c>
       <c r="T13">
-        <v>4061.4</v>
+        <v>3167.2</v>
       </c>
       <c r="U13">
-        <v>954.2</v>
+        <v>542.4</v>
       </c>
       <c r="V13">
-        <v>-93</v>
+        <v>489.44799999999998</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-10.872999999999999</v>
       </c>
       <c r="X13">
-        <v>421.4</v>
+        <v>-185.39099999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>139.5</v>
+        <v>230.77199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>123.2</v>
+        <v>185.6</v>
       </c>
       <c r="D14">
-        <v>1670.6</v>
+        <v>2204.5</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>372.4</v>
+        <v>512</v>
       </c>
       <c r="G14">
-        <v>8022.5</v>
+        <v>6054.0259999999998</v>
       </c>
       <c r="H14">
-        <v>8927.2000000000007</v>
+        <v>7169.027</v>
       </c>
       <c r="I14">
-        <v>342.1</v>
+        <v>1066.114</v>
       </c>
       <c r="J14">
-        <v>2505.5</v>
+        <v>2547.6779999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,40 +1885,40 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-55.8</v>
+        <v>-555</v>
       </c>
       <c r="N14">
-        <v>1679.3</v>
+        <v>1144.9349999999999</v>
       </c>
       <c r="O14">
-        <v>4727.3</v>
+        <v>3811.6129999999998</v>
       </c>
       <c r="P14">
-        <v>3461.9</v>
+        <v>2734.3710000000001</v>
       </c>
       <c r="Q14">
-        <v>-116.6</v>
+        <v>-418.7</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4199.8999999999996</v>
+        <v>3357.4140000000002</v>
       </c>
       <c r="U14">
-        <v>801.1</v>
+        <v>138.166</v>
       </c>
       <c r="V14">
-        <v>-7.7</v>
+        <v>-152.1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>-10.8</v>
       </c>
       <c r="X14">
-        <v>-51.6</v>
+        <v>-255.4</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>123.2</v>
+        <v>185.6</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>130.9</v>
+        <v>188.6</v>
       </c>
       <c r="D15">
-        <v>1735</v>
+        <v>2335.1999999999998</v>
       </c>
       <c r="E15">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>391.4</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="G15">
-        <v>8465.2999999999993</v>
+        <v>6486.7830000000004</v>
       </c>
       <c r="H15">
-        <v>9372.7999999999993</v>
+        <v>7643.6970000000001</v>
       </c>
       <c r="I15">
-        <v>298.89999999999998</v>
+        <v>1045.0229999999999</v>
       </c>
       <c r="J15">
-        <v>3004.8</v>
+        <v>2780.8609999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,37 +1971,37 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1486.4</v>
+        <v>1057.5999999999999</v>
       </c>
       <c r="O15">
-        <v>5023.2</v>
+        <v>4205.3249999999998</v>
       </c>
       <c r="P15">
-        <v>3862.1</v>
+        <v>3147.7249999999999</v>
       </c>
       <c r="Q15">
-        <v>132.6</v>
+        <v>54.5</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4349.6000000000004</v>
+        <v>3438.3719999999998</v>
       </c>
       <c r="U15">
-        <v>930.8</v>
+        <v>190.36199999999999</v>
       </c>
       <c r="V15">
-        <v>-258.10000000000002</v>
+        <v>-307.5</v>
       </c>
       <c r="W15">
-        <v>-12.1</v>
+        <v>-18.8</v>
       </c>
       <c r="X15">
-        <v>404.4</v>
+        <v>375.4</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>131</v>
+        <v>188.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>113.2</v>
+        <v>251.3</v>
       </c>
       <c r="D16">
-        <v>2147</v>
+        <v>2790.4</v>
       </c>
       <c r="E16">
-        <v>29.7</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>447.4</v>
+        <v>645.5</v>
       </c>
       <c r="G16">
-        <v>8713</v>
+        <v>7036.91</v>
       </c>
       <c r="H16">
-        <v>9716.6</v>
+        <v>8202.4130000000005</v>
       </c>
       <c r="I16">
-        <v>375.6</v>
+        <v>1176.7470000000001</v>
       </c>
       <c r="J16">
-        <v>3004.5</v>
+        <v>3005.3789999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1198.8</v>
+        <v>1190.095</v>
       </c>
       <c r="O16">
-        <v>4746.7</v>
+        <v>4508.8890000000001</v>
       </c>
       <c r="P16">
-        <v>3445.3</v>
+        <v>3318.7939999999999</v>
       </c>
       <c r="Q16">
-        <v>-376.1</v>
+        <v>21.4</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4969.8999999999996</v>
+        <v>3693.5239999999999</v>
       </c>
       <c r="U16">
-        <v>538.5</v>
+        <v>202.19800000000001</v>
       </c>
       <c r="V16">
-        <v>-307.89999999999998</v>
+        <v>-103.4</v>
       </c>
       <c r="W16">
-        <v>-13.7</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="X16">
-        <v>78.5</v>
+        <v>139.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>113.1</v>
+        <v>251.3</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>166.2</v>
+        <v>349.6</v>
       </c>
       <c r="D17">
-        <v>2482.6</v>
+        <v>3510.6</v>
       </c>
       <c r="E17">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>509.2</v>
+        <v>842.7</v>
       </c>
       <c r="G17">
-        <v>9180.2000000000007</v>
+        <v>7708.7</v>
       </c>
       <c r="H17">
-        <v>10185.4</v>
+        <v>8985.2000000000007</v>
       </c>
       <c r="I17">
-        <v>480.3</v>
+        <v>585.20000000000005</v>
       </c>
       <c r="J17">
-        <v>3148.8</v>
+        <v>2819.3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1365.5</v>
+        <v>1813.8</v>
       </c>
       <c r="O17">
-        <v>5065.7</v>
+        <v>4858.1000000000004</v>
       </c>
       <c r="P17">
-        <v>3665.7</v>
+        <v>3511.9</v>
       </c>
       <c r="Q17">
-        <v>44.5</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>5621</v>
+        <v>7466</v>
       </c>
       <c r="T17">
-        <v>5119.7</v>
+        <v>4127.1000000000004</v>
       </c>
       <c r="U17">
-        <v>632.5</v>
+        <v>480.1</v>
       </c>
       <c r="V17">
-        <v>-87.7</v>
+        <v>140.5</v>
       </c>
       <c r="W17">
-        <v>-22.8</v>
+        <v>-18.7</v>
       </c>
       <c r="X17">
-        <v>196.6</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>166.2</v>
+        <v>349.6</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>142.5</v>
+        <v>241</v>
       </c>
       <c r="D18">
-        <v>2302.6</v>
+        <v>2520.1</v>
       </c>
       <c r="E18">
-        <v>38.4</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>459.2</v>
+        <v>644.6</v>
       </c>
       <c r="G18">
-        <v>9350.7000000000007</v>
+        <v>8383.9</v>
       </c>
       <c r="H18">
-        <v>10338.700000000001</v>
+        <v>9698.7000000000007</v>
       </c>
       <c r="I18">
-        <v>400.4</v>
+        <v>406.1</v>
       </c>
       <c r="J18">
-        <v>3245.4</v>
+        <v>3326.4</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,40 +2217,40 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-450.9</v>
+        <v>-229</v>
       </c>
       <c r="N18">
-        <v>1283.0999999999999</v>
+        <v>1697.2</v>
       </c>
       <c r="O18">
-        <v>5074.8999999999996</v>
+        <v>5300.9</v>
       </c>
       <c r="P18">
-        <v>3726.8</v>
+        <v>3926.8</v>
       </c>
       <c r="Q18">
-        <v>-120.8</v>
+        <v>-161</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5263.8</v>
+        <v>4397.8</v>
       </c>
       <c r="U18">
-        <v>517.70000000000005</v>
+        <v>313.10000000000002</v>
       </c>
       <c r="V18">
-        <v>-129</v>
+        <v>-559.1</v>
       </c>
       <c r="W18">
-        <v>-22.8</v>
+        <v>-18.7</v>
       </c>
       <c r="X18">
-        <v>22.1</v>
+        <v>412.2</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>142.5</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>147.9</v>
+        <v>294</v>
       </c>
       <c r="D19">
-        <v>2398</v>
+        <v>2876.7</v>
       </c>
       <c r="E19">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>480.5</v>
+        <v>739.1</v>
       </c>
       <c r="G19">
-        <v>9716.7999999999993</v>
+        <v>9147.7999999999993</v>
       </c>
       <c r="H19">
-        <v>10713.1</v>
+        <v>10540.5</v>
       </c>
       <c r="I19">
-        <v>451.9</v>
+        <v>718.2</v>
       </c>
       <c r="J19">
-        <v>3548</v>
+        <v>3623.6</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1197</v>
+        <v>1706.8</v>
       </c>
       <c r="O19">
-        <v>5292.1</v>
+        <v>5857.8</v>
       </c>
       <c r="P19">
-        <v>3945.5</v>
+        <v>4340.6000000000004</v>
       </c>
       <c r="Q19">
-        <v>156.69999999999999</v>
+        <v>215.8</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5421</v>
+        <v>4682.7</v>
       </c>
       <c r="U19">
-        <v>665.8</v>
+        <v>526.1</v>
       </c>
       <c r="V19">
-        <v>-39.799999999999997</v>
+        <v>-155</v>
       </c>
       <c r="W19">
-        <v>-22.9</v>
+        <v>-21.5</v>
       </c>
       <c r="X19">
-        <v>211.9</v>
+        <v>385.5</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>147.9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>221.4</v>
+        <v>371.7</v>
       </c>
       <c r="D20">
-        <v>2950.8</v>
+        <v>3370.2</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>603.1</v>
+        <v>905.9</v>
       </c>
       <c r="G20">
-        <v>9837.4</v>
+        <v>9622.9</v>
       </c>
       <c r="H20">
-        <v>10863.5</v>
+        <v>11044.5</v>
       </c>
       <c r="I20">
-        <v>462.1</v>
+        <v>722.6</v>
       </c>
       <c r="J20">
-        <v>3373.1</v>
+        <v>3654.7</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1318.8</v>
+        <v>1668.7</v>
       </c>
       <c r="O20">
-        <v>5232.5</v>
+        <v>6031.8</v>
       </c>
       <c r="P20">
-        <v>3821.1</v>
+        <v>4363.1000000000004</v>
       </c>
       <c r="Q20">
-        <v>107.9</v>
+        <v>-401</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5631</v>
+        <v>5012.7</v>
       </c>
       <c r="U20">
-        <v>766.7</v>
+        <v>109.8</v>
       </c>
       <c r="V20">
-        <v>357.4</v>
+        <v>-386.8</v>
       </c>
       <c r="W20">
-        <v>-22.9</v>
+        <v>-28.1</v>
       </c>
       <c r="X20">
-        <v>-144</v>
+        <v>1.7</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-14.8</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>221.4</v>
+        <v>371.7</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>238.9</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="D21">
-        <v>3172.4</v>
+        <v>5096.8</v>
       </c>
       <c r="E21">
-        <v>49.2</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>645.79999999999995</v>
+        <v>1304.4000000000001</v>
       </c>
       <c r="G21">
-        <v>10187.9</v>
+        <v>10995.3</v>
       </c>
       <c r="H21">
-        <v>11151</v>
+        <v>12514.8</v>
       </c>
       <c r="I21">
-        <v>473</v>
+        <v>820.7</v>
       </c>
       <c r="J21">
-        <v>2791</v>
+        <v>3445.1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1919.8</v>
+        <v>3506.1</v>
       </c>
       <c r="O21">
-        <v>5255.6</v>
+        <v>6951.2</v>
       </c>
       <c r="P21">
-        <v>3811.5</v>
+        <v>4909.6000000000004</v>
       </c>
       <c r="Q21">
-        <v>578.20000000000005</v>
+        <v>978</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>6230</v>
+        <v>8900</v>
       </c>
       <c r="T21">
-        <v>5895.4</v>
+        <v>5563.6</v>
       </c>
       <c r="U21">
-        <v>1354.8</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="V21">
-        <v>511.8</v>
+        <v>480.2</v>
       </c>
       <c r="W21">
-        <v>-23</v>
+        <v>-28.2</v>
       </c>
       <c r="X21">
-        <v>27</v>
+        <v>521.29999999999995</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>238.9</v>
+        <v>563.79999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>157.69999999999999</v>
+        <v>310.10000000000002</v>
       </c>
       <c r="D22">
-        <v>2416.4</v>
+        <v>2903.1</v>
       </c>
       <c r="E22">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>483.3</v>
+        <v>829.1</v>
       </c>
       <c r="G22">
-        <v>10229.299999999999</v>
+        <v>11206.4</v>
       </c>
       <c r="H22">
-        <v>11179.5</v>
+        <v>12813.3</v>
       </c>
       <c r="I22">
-        <v>415.6</v>
+        <v>765.5</v>
       </c>
       <c r="J22">
-        <v>2794.4</v>
+        <v>4300</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,40 +2549,40 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-81</v>
+        <v>-795.2</v>
       </c>
       <c r="N22">
-        <v>1779.2</v>
+        <v>2724.4</v>
       </c>
       <c r="O22">
-        <v>5119</v>
+        <v>7024.4</v>
       </c>
       <c r="P22">
-        <v>3734.3</v>
+        <v>5114.7</v>
       </c>
       <c r="Q22">
-        <v>-115.1</v>
+        <v>-924.6</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6325</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>6060.5</v>
+        <v>5788.9</v>
       </c>
       <c r="U22">
-        <v>1245.7</v>
+        <v>182.5</v>
       </c>
       <c r="V22">
-        <v>-1.5</v>
+        <v>-1012.6</v>
       </c>
       <c r="W22">
-        <v>-29.6</v>
+        <v>-28.2</v>
       </c>
       <c r="X22">
-        <v>-91.4</v>
+        <v>106.4</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>157.69999999999999</v>
+        <v>310.10000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>195.1</v>
+        <v>352.8</v>
       </c>
       <c r="D23">
-        <v>2767.9</v>
+        <v>3597.6</v>
       </c>
       <c r="E23">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>553.5</v>
+        <v>946</v>
       </c>
       <c r="G23">
-        <v>10393</v>
+        <v>11847.8</v>
       </c>
       <c r="H23">
-        <v>11300.2</v>
+        <v>13511</v>
       </c>
       <c r="I23">
-        <v>499.8</v>
+        <v>818.1</v>
       </c>
       <c r="J23">
-        <v>2445.5</v>
+        <v>4633.7</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2083.6</v>
+        <v>2755.3</v>
       </c>
       <c r="O23">
-        <v>5051.2</v>
+        <v>7389</v>
       </c>
       <c r="P23">
-        <v>3662.7</v>
+        <v>5523.7</v>
       </c>
       <c r="Q23">
-        <v>-44.6</v>
+        <v>53</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>6465</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>6249</v>
+        <v>6122</v>
       </c>
       <c r="U23">
-        <v>1195.2</v>
+        <v>206.3</v>
       </c>
       <c r="V23">
-        <v>28.4</v>
+        <v>-303.10000000000002</v>
       </c>
       <c r="W23">
-        <v>-29.6</v>
+        <v>-31.2</v>
       </c>
       <c r="X23">
-        <v>-88.5</v>
+        <v>372.8</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>35.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>195.1</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>249.8</v>
+        <v>292.7</v>
       </c>
       <c r="D24">
-        <v>3231.9</v>
+        <v>3667.8</v>
       </c>
       <c r="E24">
-        <v>34.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>664.1</v>
+        <v>886.6</v>
       </c>
       <c r="G24">
-        <v>10423</v>
+        <v>13011.6</v>
       </c>
       <c r="H24">
-        <v>11333.2</v>
+        <v>14559.7</v>
       </c>
       <c r="I24">
-        <v>568.20000000000005</v>
+        <v>957.4</v>
       </c>
       <c r="J24">
-        <v>2797.1</v>
+        <v>5274.7</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1494.1</v>
+        <v>2925.3</v>
       </c>
       <c r="O24">
-        <v>4820.3999999999996</v>
+        <v>8200</v>
       </c>
       <c r="P24">
-        <v>3301.3</v>
+        <v>6214</v>
       </c>
       <c r="Q24">
-        <v>-317.3</v>
+        <v>-118.1</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>6720</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>6512.8</v>
+        <v>6359.7</v>
       </c>
       <c r="U24">
-        <v>862.9</v>
+        <v>100.3</v>
       </c>
       <c r="V24">
-        <v>61.7</v>
+        <v>-748.4</v>
       </c>
       <c r="W24">
-        <v>-29.7</v>
+        <v>-31.2</v>
       </c>
       <c r="X24">
-        <v>-358.5</v>
+        <v>661.4</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>249.8</v>
+        <v>292.8</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>283.7</v>
+        <v>277.7</v>
       </c>
       <c r="D25">
-        <v>3741.2</v>
+        <v>4882.8</v>
       </c>
       <c r="E25">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>776.1</v>
+        <v>1059.9000000000001</v>
       </c>
       <c r="G25">
-        <v>10690.7</v>
+        <v>13201.9</v>
       </c>
       <c r="H25">
-        <v>11558.9</v>
+        <v>14820.7</v>
       </c>
       <c r="I25">
-        <v>537</v>
+        <v>982.3</v>
       </c>
       <c r="J25">
-        <v>2448.8000000000002</v>
+        <v>4671.8999999999996</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1800.8</v>
+        <v>3590.8</v>
       </c>
       <c r="O25">
-        <v>4765.8999999999996</v>
+        <v>8262.7000000000007</v>
       </c>
       <c r="P25">
-        <v>3271.3</v>
+        <v>6078.6</v>
       </c>
       <c r="Q25">
-        <v>396.4</v>
+        <v>427.5</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>6976</v>
+        <v>8772</v>
       </c>
       <c r="T25">
-        <v>6793</v>
+        <v>6558</v>
       </c>
       <c r="U25">
-        <v>1271.8</v>
+        <v>457.8</v>
       </c>
       <c r="V25">
-        <v>529.4</v>
+        <v>873.3</v>
       </c>
       <c r="W25">
-        <v>-29.8</v>
+        <v>-47</v>
       </c>
       <c r="X25">
-        <v>-47.6</v>
+        <v>-428.7</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>283.7</v>
+        <v>277.7</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>206.9</v>
+        <v>109.7</v>
       </c>
       <c r="D26">
-        <v>2904.2</v>
+        <v>2868</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>584.70000000000005</v>
+        <v>548.79999999999995</v>
       </c>
       <c r="G26">
-        <v>10836.9</v>
+        <v>12134.6</v>
       </c>
       <c r="H26">
-        <v>11712.1</v>
+        <v>13668.7</v>
       </c>
       <c r="I26">
-        <v>505.9</v>
+        <v>812.4</v>
       </c>
       <c r="J26">
-        <v>2448.9</v>
+        <v>4429.8999999999996</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,40 +2881,40 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-54.3</v>
+        <v>-1739.1</v>
       </c>
       <c r="N26">
-        <v>1766.6</v>
+        <v>2603.5</v>
       </c>
       <c r="O26">
-        <v>4730.3</v>
+        <v>7033.4</v>
       </c>
       <c r="P26">
-        <v>3217.6</v>
+        <v>5148.8999999999996</v>
       </c>
       <c r="Q26">
-        <v>-152.9</v>
+        <v>-447.8</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>7109</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6981.8</v>
+        <v>6635.3</v>
       </c>
       <c r="U26">
-        <v>1115.5</v>
+        <v>65.5</v>
       </c>
       <c r="V26">
-        <v>-28.2</v>
+        <v>295.5</v>
       </c>
       <c r="W26">
-        <v>-37.299999999999997</v>
+        <v>-47</v>
       </c>
       <c r="X26">
-        <v>-93.4</v>
+        <v>-732.1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>206.9</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>229.2</v>
+        <v>51.7</v>
       </c>
       <c r="D27">
-        <v>3251.3</v>
+        <v>2658.1</v>
       </c>
       <c r="E27">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>656.1</v>
+        <v>460</v>
       </c>
       <c r="G27">
-        <v>11038.3</v>
+        <v>11996.4</v>
       </c>
       <c r="H27">
-        <v>11921.1</v>
+        <v>13510.5</v>
       </c>
       <c r="I27">
-        <v>530.29999999999995</v>
+        <v>777.5</v>
       </c>
       <c r="J27">
-        <v>2453.5</v>
+        <v>4377.3999999999996</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1714.5</v>
+        <v>2490.3000000000002</v>
       </c>
       <c r="O27">
-        <v>4701</v>
+        <v>6867.7</v>
       </c>
       <c r="P27">
-        <v>3222.4</v>
+        <v>5100.5</v>
       </c>
       <c r="Q27">
-        <v>-157.1</v>
+        <v>78.8</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>7358</v>
+        <v>7400</v>
       </c>
       <c r="T27">
-        <v>7220.1</v>
+        <v>6642.8</v>
       </c>
       <c r="U27">
-        <v>947.9</v>
+        <v>68.2</v>
       </c>
       <c r="V27">
-        <v>-107.5</v>
+        <v>178.3</v>
       </c>
       <c r="W27">
-        <v>-37.4</v>
+        <v>-47.1</v>
       </c>
       <c r="X27">
-        <v>-7.5</v>
+        <v>-86.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>229.2</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>289</v>
+        <v>-823.7</v>
       </c>
       <c r="D28">
-        <v>3776.4</v>
+        <v>2598.1</v>
       </c>
       <c r="E28">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>758.3</v>
+        <v>441.9</v>
       </c>
       <c r="G28">
-        <v>11134.6</v>
+        <v>11117.1</v>
       </c>
       <c r="H28">
-        <v>11977.1</v>
+        <v>12494</v>
       </c>
       <c r="I28">
-        <v>602.6</v>
+        <v>807.6</v>
       </c>
       <c r="J28">
-        <v>2453.1</v>
+        <v>4383</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1542.5</v>
+        <v>2348.1999999999998</v>
       </c>
       <c r="O28">
-        <v>4540.3999999999996</v>
+        <v>6731.2</v>
       </c>
       <c r="P28">
-        <v>2926.5</v>
+        <v>4916.8</v>
       </c>
       <c r="Q28">
-        <v>-480.8</v>
+        <v>-157.80000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>7682</v>
+        <v>6900</v>
       </c>
       <c r="T28">
-        <v>7436.7</v>
+        <v>5762.8</v>
       </c>
       <c r="U28">
-        <v>460.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V28">
-        <v>-50</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="W28">
-        <v>-37.5</v>
+        <v>-47.1</v>
       </c>
       <c r="X28">
-        <v>-383.2</v>
+        <v>-222.8</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>289</v>
+        <v>-823.8</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>313.3</v>
+        <v>-50.2</v>
       </c>
       <c r="D29">
-        <v>4159.1000000000004</v>
+        <v>3172.4</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>864.2</v>
+        <v>551.29999999999995</v>
       </c>
       <c r="G29">
-        <v>10848.7</v>
+        <v>10142</v>
       </c>
       <c r="H29">
-        <v>12184.6</v>
+        <v>11556.3</v>
       </c>
       <c r="I29">
-        <v>578.9</v>
+        <v>566.20000000000005</v>
       </c>
       <c r="J29">
-        <v>2051.9</v>
+        <v>3774</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2385.1</v>
+        <v>1740</v>
       </c>
       <c r="O29">
-        <v>4437</v>
+        <v>5901</v>
       </c>
       <c r="P29">
-        <v>2871.6</v>
+        <v>4376.8</v>
       </c>
       <c r="Q29">
-        <v>495.4</v>
+        <v>208.8</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>7735</v>
+        <v>6231</v>
       </c>
       <c r="T29">
-        <v>7747.6</v>
+        <v>5655.3</v>
       </c>
       <c r="U29">
-        <v>983.7</v>
+        <v>228.3</v>
       </c>
       <c r="V29">
-        <v>625.9</v>
+        <v>808.3</v>
       </c>
       <c r="W29">
-        <v>-37.4</v>
+        <v>-47.2</v>
       </c>
       <c r="X29">
-        <v>-80.5</v>
+        <v>-592.4</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>313.3</v>
+        <v>-50.2</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>189.3</v>
+        <v>-128.80000000000001</v>
       </c>
       <c r="D30">
-        <v>3332.7</v>
+        <v>1742.6</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>695.2</v>
+        <v>254</v>
       </c>
       <c r="G30">
-        <v>12083.2</v>
+        <v>8960.5</v>
       </c>
       <c r="H30">
-        <v>12957.3</v>
+        <v>10401</v>
       </c>
       <c r="I30">
-        <v>574.1</v>
+        <v>358.6</v>
       </c>
       <c r="J30">
-        <v>2870.6</v>
+        <v>3618.3</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-858.4</v>
+        <v>-757.4</v>
       </c>
       <c r="N30">
-        <v>1470.1</v>
+        <v>1330.5</v>
       </c>
       <c r="O30">
-        <v>4901.8999999999996</v>
+        <v>4948.8</v>
       </c>
       <c r="P30">
-        <v>3258.1</v>
+        <v>3724.2</v>
       </c>
       <c r="Q30">
-        <v>-50.3</v>
+        <v>-140.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="T30">
-        <v>8055.4</v>
+        <v>5452.2</v>
       </c>
       <c r="U30">
-        <v>895.8</v>
+        <v>90.4</v>
       </c>
       <c r="V30">
-        <v>-75</v>
+        <v>557.70000000000005</v>
       </c>
       <c r="W30">
-        <v>-47</v>
+        <v>-47.3</v>
       </c>
       <c r="X30">
-        <v>185.7</v>
+        <v>-694.1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>189.3</v>
+        <v>-128.80000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>351</v>
+        <v>-1305.7</v>
       </c>
       <c r="D31">
-        <v>3794.7</v>
+        <v>1656.9</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>799.7</v>
+        <v>167.2</v>
       </c>
       <c r="G31">
-        <v>12379.1</v>
+        <v>7933.4</v>
       </c>
       <c r="H31">
-        <v>13218.1</v>
+        <v>8955.2000000000007</v>
       </c>
       <c r="I31">
-        <v>579.70000000000005</v>
+        <v>290.39999999999998</v>
       </c>
       <c r="J31">
-        <v>2744.1</v>
+        <v>3580.8</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1510.9</v>
+        <v>1267.3</v>
       </c>
       <c r="O31">
-        <v>4846.2</v>
+        <v>4848.1000000000004</v>
       </c>
       <c r="P31">
-        <v>3233.9</v>
+        <v>3744.8</v>
       </c>
       <c r="Q31">
-        <v>92.2</v>
+        <v>431.8</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T31">
-        <v>8371.9</v>
+        <v>4107.1000000000004</v>
       </c>
       <c r="U31">
-        <v>981.7</v>
+        <v>518.9</v>
       </c>
       <c r="V31">
-        <v>-23.8</v>
+        <v>452.3</v>
       </c>
       <c r="W31">
-        <v>-47.1</v>
+        <v>-47.2</v>
       </c>
       <c r="X31">
-        <v>-76.400000000000006</v>
+        <v>-17.8</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>351</v>
+        <v>-1305.5999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>453.8</v>
+        <v>-399.3</v>
       </c>
       <c r="D32">
-        <v>4435.3</v>
+        <v>1464.2</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>980.2</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="G32">
-        <v>12765.7</v>
+        <v>7494.3</v>
       </c>
       <c r="H32">
-        <v>13593.4</v>
+        <v>8464.5</v>
       </c>
       <c r="I32">
-        <v>655.29999999999995</v>
+        <v>285.2</v>
       </c>
       <c r="J32">
-        <v>2567.3000000000002</v>
+        <v>3581.6</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1699.2</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="O32">
-        <v>4823.5</v>
+        <v>4774.2</v>
       </c>
       <c r="P32">
-        <v>3093.6</v>
+        <v>3668.1</v>
       </c>
       <c r="Q32">
-        <v>170.7</v>
+        <v>290.3</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="T32">
-        <v>8769.9</v>
+        <v>3690.3</v>
       </c>
       <c r="U32">
-        <v>1135.0999999999999</v>
+        <v>819.4</v>
       </c>
       <c r="V32">
-        <v>405.3</v>
+        <v>387.5</v>
       </c>
       <c r="W32">
-        <v>-47.2</v>
+        <v>-23.7</v>
       </c>
       <c r="X32">
-        <v>-210.7</v>
+        <v>-97.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>453.8</v>
+        <v>-399.3</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>466.2</v>
+        <v>-799.8</v>
       </c>
       <c r="D33">
-        <v>4505.1000000000004</v>
+        <v>1782.4</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="F33">
-        <v>985.2</v>
+        <v>178.4</v>
       </c>
       <c r="G33">
-        <v>13315.8</v>
+        <v>7461.9</v>
       </c>
       <c r="H33">
-        <v>14114.6</v>
+        <v>7950.6</v>
       </c>
       <c r="I33">
-        <v>624.70000000000005</v>
+        <v>254</v>
       </c>
       <c r="J33">
-        <v>2066.1999999999998</v>
+        <v>2995.3</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2350</v>
+        <v>1316</v>
       </c>
       <c r="O33">
-        <v>4955.7</v>
+        <v>5085.8</v>
       </c>
       <c r="P33">
-        <v>3203.5</v>
+        <v>3748.4</v>
       </c>
       <c r="Q33">
-        <v>269.10000000000002</v>
+        <v>536.1</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>8437</v>
+        <v>3800</v>
       </c>
       <c r="T33">
-        <v>9158.9</v>
+        <v>2864.8</v>
       </c>
       <c r="U33">
-        <v>1439.4</v>
+        <v>1355.6</v>
       </c>
       <c r="V33">
-        <v>238.7</v>
+        <v>479</v>
       </c>
       <c r="W33">
-        <v>-47.1</v>
+        <v>-23.8</v>
       </c>
       <c r="X33">
-        <v>18.899999999999999</v>
+        <v>54.1</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>466.2</v>
+        <v>-799.8</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>287.2</v>
+        <v>-62.6</v>
       </c>
       <c r="D34">
-        <v>3519</v>
+        <v>918</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>710.4</v>
+        <v>137</v>
       </c>
       <c r="G34">
-        <v>13704.5</v>
+        <v>6597.9</v>
       </c>
       <c r="H34">
-        <v>14535.8</v>
+        <v>7174.9</v>
       </c>
       <c r="I34">
-        <v>686.6</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="J34">
-        <v>2368.5</v>
+        <v>2945.9</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3545,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-439.9</v>
+        <v>-277.5</v>
       </c>
       <c r="N34">
-        <v>2308.1999999999998</v>
+        <v>1436.8</v>
       </c>
       <c r="O34">
-        <v>5237.6000000000004</v>
+        <v>4382.7</v>
       </c>
       <c r="P34">
-        <v>3342.3</v>
+        <v>3461.3</v>
       </c>
       <c r="Q34">
-        <v>-737.7</v>
+        <v>525.79999999999995</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="T34">
-        <v>9298.2000000000007</v>
+        <v>2792.2</v>
       </c>
       <c r="U34">
-        <v>704.2</v>
+        <v>1882.8</v>
       </c>
       <c r="V34">
-        <v>-373.1</v>
+        <v>817</v>
       </c>
       <c r="W34">
-        <v>-56</v>
+        <v>-11.9</v>
       </c>
       <c r="X34">
-        <v>-54.2</v>
+        <v>-289.3</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>287.2</v>
+        <v>-62.6</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>351.2</v>
+        <v>-108.5</v>
       </c>
       <c r="D35">
-        <v>4128.7</v>
+        <v>778</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>818.2</v>
+        <v>90.7</v>
       </c>
       <c r="G35">
-        <v>14126.6</v>
+        <v>5925.3</v>
       </c>
       <c r="H35">
-        <v>15007</v>
+        <v>6477.7</v>
       </c>
       <c r="I35">
-        <v>658.5</v>
+        <v>150.9</v>
       </c>
       <c r="J35">
-        <v>2931.7</v>
+        <v>2867.6</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,37 +3631,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1967.4</v>
+        <v>948</v>
       </c>
       <c r="O35">
-        <v>5473</v>
+        <v>3815.6</v>
       </c>
       <c r="P35">
-        <v>3622.4</v>
+        <v>2912</v>
       </c>
       <c r="Q35">
-        <v>-37.1</v>
+        <v>-397.9</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="T35">
-        <v>9534</v>
+        <v>2662.1</v>
       </c>
       <c r="U35">
-        <v>637.70000000000005</v>
+        <v>1485.6</v>
       </c>
       <c r="V35">
-        <v>-88.6</v>
+        <v>160.9</v>
       </c>
       <c r="W35">
-        <v>-55.9</v>
+        <v>-11.9</v>
       </c>
       <c r="X35">
-        <v>62.2</v>
+        <v>-556.9</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>351.3</v>
+        <v>-108.6</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>474.8</v>
+        <v>-143.80000000000001</v>
       </c>
       <c r="D36">
-        <v>4906.3</v>
+        <v>932.9</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1022.4</v>
+        <v>105.2</v>
       </c>
       <c r="G36">
-        <v>14312.7</v>
+        <v>6285.2</v>
       </c>
       <c r="H36">
-        <v>15224</v>
+        <v>6779.5</v>
       </c>
       <c r="I36">
-        <v>681.2</v>
+        <v>170.6</v>
       </c>
       <c r="J36">
-        <v>2654.1</v>
+        <v>3113.3</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2126.8000000000002</v>
+        <v>1147.5999999999999</v>
       </c>
       <c r="O36">
-        <v>5409.3</v>
+        <v>4260.8999999999996</v>
       </c>
       <c r="P36">
-        <v>3450.6</v>
+        <v>3357.6</v>
       </c>
       <c r="Q36">
-        <v>154.1</v>
+        <v>487.1</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="T36">
-        <v>9814.7000000000007</v>
+        <v>2518.6</v>
       </c>
       <c r="U36">
-        <v>819.5</v>
+        <v>1966.3</v>
       </c>
       <c r="V36">
-        <v>542.4</v>
+        <v>124.1</v>
       </c>
       <c r="W36">
-        <v>-56</v>
+        <v>-11.8</v>
       </c>
       <c r="X36">
-        <v>-383.1</v>
+        <v>425.4</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,39 +3753,39 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>474.8</v>
+        <v>-143.80000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>505.3</v>
+        <v>-234.9</v>
       </c>
       <c r="D37">
-        <v>5038.8999999999996</v>
+        <v>1028.8</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>50.7</v>
       </c>
       <c r="F37">
-        <v>1095.8</v>
+        <v>124.4</v>
       </c>
       <c r="G37">
-        <v>14704.5</v>
+        <v>6520</v>
       </c>
       <c r="H37">
-        <v>15606.6</v>
+        <v>6756.8</v>
       </c>
       <c r="I37">
-        <v>627</v>
+        <v>216.8</v>
       </c>
       <c r="J37">
-        <v>1492.9</v>
+        <v>2860</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,37 +3797,37 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3231.2</v>
+        <v>777.3</v>
       </c>
       <c r="O37">
-        <v>5311.5</v>
+        <v>4356.2</v>
       </c>
       <c r="P37">
-        <v>3399.4</v>
+        <v>3145.3</v>
       </c>
       <c r="Q37">
-        <v>628.70000000000005</v>
+        <v>-45</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>8916</v>
+        <v>2926</v>
       </c>
       <c r="T37">
-        <v>10295.1</v>
+        <v>2400.6</v>
       </c>
       <c r="U37">
-        <v>1450.9</v>
+        <v>1922.8</v>
       </c>
       <c r="V37">
-        <v>811.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="W37">
-        <v>-55.5</v>
+        <v>-11.9</v>
       </c>
       <c r="X37">
-        <v>-115</v>
+        <v>-91</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3716,39 +3836,39 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>505.3</v>
+        <v>-234.9</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>431.3</v>
+        <v>192</v>
       </c>
       <c r="D38">
-        <v>4020.7</v>
+        <v>1132.2</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="F38">
-        <v>864.1</v>
+        <v>196.2</v>
       </c>
       <c r="G38">
-        <v>15350.8</v>
+        <v>6448.1</v>
       </c>
       <c r="H38">
-        <v>16322.9</v>
+        <v>6692.1</v>
       </c>
       <c r="I38">
-        <v>657.9</v>
+        <v>173.5</v>
       </c>
       <c r="J38">
-        <v>1915.1</v>
+        <v>2694.5</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-38.6</v>
+        <v>-233.7</v>
       </c>
       <c r="N38">
-        <v>3281.8</v>
+        <v>726.4</v>
       </c>
       <c r="O38">
-        <v>5820</v>
+        <v>4102.8999999999996</v>
       </c>
       <c r="P38">
-        <v>3820.9</v>
+        <v>2916.2</v>
       </c>
       <c r="Q38">
-        <v>81.900000000000006</v>
+        <v>-21.1</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="T38">
-        <v>10502.9</v>
+        <v>2589.1999999999998</v>
       </c>
       <c r="U38">
-        <v>1545.8</v>
+        <v>1904.3</v>
       </c>
       <c r="V38">
-        <v>-113.8</v>
+        <v>220</v>
       </c>
       <c r="W38">
-        <v>-64.599999999999994</v>
+        <v>-11.9</v>
       </c>
       <c r="X38">
-        <v>213.5</v>
+        <v>-240.7</v>
       </c>
       <c r="Y38">
-        <v>37.6</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>431.3</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>482.7</v>
+        <v>11.4</v>
       </c>
       <c r="D39">
-        <v>4500</v>
+        <v>913.5</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="F39">
-        <v>978.3</v>
+        <v>162.6</v>
       </c>
       <c r="G39">
-        <v>16001.7</v>
+        <v>6210</v>
       </c>
       <c r="H39">
-        <v>17130</v>
+        <v>6459.3</v>
       </c>
       <c r="I39">
-        <v>706.8</v>
+        <v>232.4</v>
       </c>
       <c r="J39">
-        <v>2720.7</v>
+        <v>2482.1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3029.7</v>
+        <v>700</v>
       </c>
       <c r="O39">
-        <v>6395.2</v>
+        <v>3865.4</v>
       </c>
       <c r="P39">
-        <v>4428.6000000000004</v>
+        <v>2629.5</v>
       </c>
       <c r="Q39">
-        <v>-58.6</v>
+        <v>-296.60000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="T39">
-        <v>10734.8</v>
+        <v>2593.9</v>
       </c>
       <c r="U39">
-        <v>1477</v>
+        <v>1612.8</v>
       </c>
       <c r="V39">
-        <v>-281.3</v>
+        <v>207.8</v>
       </c>
       <c r="W39">
-        <v>-64.099999999999994</v>
+        <v>-11.9</v>
       </c>
       <c r="X39">
-        <v>239.5</v>
+        <v>-302.89999999999998</v>
       </c>
       <c r="Y39">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.5</v>
+        <v>-199.1</v>
       </c>
       <c r="AA39">
-        <v>482.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>630.70000000000005</v>
+        <v>50.5</v>
       </c>
       <c r="D40">
-        <v>5390</v>
+        <v>1406.1</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="F40">
-        <v>1222.5</v>
+        <v>246</v>
       </c>
       <c r="G40">
-        <v>16866.599999999999</v>
+        <v>5950.6</v>
       </c>
       <c r="H40">
-        <v>17973.900000000001</v>
+        <v>6211.4</v>
       </c>
       <c r="I40">
-        <v>761.1</v>
+        <v>199.8</v>
       </c>
       <c r="J40">
-        <v>2724.8</v>
+        <v>2151.5</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3249.8</v>
+        <v>738.4</v>
       </c>
       <c r="O40">
-        <v>6646.8</v>
+        <v>3574.6</v>
       </c>
       <c r="P40">
-        <v>4372</v>
+        <v>2367.1999999999998</v>
       </c>
       <c r="Q40">
-        <v>835.4</v>
+        <v>-247.1</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>3255</v>
       </c>
       <c r="T40">
-        <v>11327.1</v>
+        <v>2636.8</v>
       </c>
       <c r="U40">
-        <v>2278.4</v>
+        <v>1357.1</v>
       </c>
       <c r="V40">
-        <v>984</v>
+        <v>159.30000000000001</v>
       </c>
       <c r="W40">
-        <v>-63.6</v>
+        <v>-12</v>
       </c>
       <c r="X40">
-        <v>-82.8</v>
+        <v>-289.7</v>
       </c>
       <c r="Y40">
-        <v>38.1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-100.3</v>
       </c>
       <c r="AA40">
-        <v>630.70000000000005</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>829</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D41">
-        <v>6400.3</v>
+        <v>948.5</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="F41">
-        <v>1553.1</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="G41">
-        <v>17781</v>
+        <v>5680.4</v>
       </c>
       <c r="H41">
-        <v>18912.3</v>
+        <v>5938.6</v>
       </c>
       <c r="I41">
-        <v>900.5</v>
+        <v>135.1</v>
       </c>
       <c r="J41">
-        <v>2750.9</v>
+        <v>1896.4</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3334.8</v>
+        <v>712.6</v>
       </c>
       <c r="O41">
-        <v>6790.8</v>
+        <v>3315.7</v>
       </c>
       <c r="P41">
-        <v>4336.8</v>
+        <v>2171.8000000000002</v>
       </c>
       <c r="Q41">
-        <v>667.4</v>
+        <v>-83.2</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>9716</v>
+        <v>3214</v>
       </c>
       <c r="T41">
-        <v>12121.5</v>
+        <v>2622.9</v>
       </c>
       <c r="U41">
-        <v>2962.9</v>
+        <v>1282.5999999999999</v>
       </c>
       <c r="V41">
-        <v>832.7</v>
+        <v>122.3</v>
       </c>
       <c r="W41">
-        <v>-63.7</v>
+        <v>-11.9</v>
       </c>
       <c r="X41">
-        <v>-99.6</v>
+        <v>-206.1</v>
       </c>
       <c r="Y41">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.9</v>
+        <v>-0.9</v>
       </c>
       <c r="AA41">
-        <v>829</v>
+        <v>-8.8000000000000007</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="D42">
+        <v>788.2</v>
+      </c>
+      <c r="E42">
+        <v>17.7</v>
+      </c>
+      <c r="F42">
+        <v>122.8</v>
+      </c>
+      <c r="G42">
+        <v>5468.9</v>
+      </c>
+      <c r="H42">
+        <v>5726.7</v>
+      </c>
+      <c r="I42">
+        <v>127.5</v>
+      </c>
+      <c r="J42">
+        <v>1852</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-129</v>
+      </c>
+      <c r="N42">
+        <v>574.29999999999995</v>
+      </c>
+      <c r="O42">
+        <v>3136.1</v>
+      </c>
+      <c r="P42">
+        <v>2050.6999999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-88.2</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>3150</v>
+      </c>
+      <c r="T42">
+        <v>2590.6</v>
+      </c>
+      <c r="U42">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="V42">
+        <v>49.5</v>
+      </c>
+      <c r="W42">
+        <v>-12</v>
+      </c>
+      <c r="X42">
+        <v>-140.5</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>27.8</v>
+      </c>
+      <c r="D43">
+        <v>751.1</v>
+      </c>
+      <c r="E43">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F43">
+        <v>120.7</v>
+      </c>
+      <c r="G43">
+        <v>5359.4</v>
+      </c>
+      <c r="H43">
+        <v>5621.3</v>
+      </c>
+      <c r="I43">
+        <v>154.1</v>
+      </c>
+      <c r="J43">
+        <v>1783.3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>594.6</v>
+      </c>
+      <c r="O43">
+        <v>3010.9</v>
+      </c>
+      <c r="P43">
+        <v>2004.3</v>
+      </c>
+      <c r="Q43">
+        <v>-140</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2610.4</v>
+      </c>
+      <c r="U43">
+        <v>1064.8</v>
+      </c>
+      <c r="V43">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="W43">
+        <v>-12</v>
+      </c>
+      <c r="X43">
+        <v>-68.900000000000006</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>2.8</v>
+      </c>
+      <c r="AA43">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>28.6</v>
+      </c>
+      <c r="D44">
+        <v>999.2</v>
+      </c>
+      <c r="E44">
+        <v>20.5</v>
+      </c>
+      <c r="F44">
+        <v>167.9</v>
+      </c>
+      <c r="G44">
+        <v>5243.9</v>
+      </c>
+      <c r="H44">
+        <v>5504.8</v>
+      </c>
+      <c r="I44">
+        <v>181.7</v>
+      </c>
+      <c r="J44">
+        <v>1658.1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>590.6</v>
+      </c>
+      <c r="O44">
+        <v>2911.2</v>
+      </c>
+      <c r="P44">
+        <v>1880.4</v>
+      </c>
+      <c r="Q44">
+        <v>-240.1</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2593.6</v>
+      </c>
+      <c r="U44">
+        <v>824.2</v>
+      </c>
+      <c r="V44">
+        <v>-54.2</v>
+      </c>
+      <c r="W44">
+        <v>-11.9</v>
+      </c>
+      <c r="X44">
+        <v>-169.1</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-6.8</v>
+      </c>
+      <c r="AA44">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D45">
+        <v>1098.3</v>
+      </c>
+      <c r="E45">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F45">
+        <v>179.3</v>
+      </c>
+      <c r="G45">
+        <v>5160.6000000000004</v>
+      </c>
+      <c r="H45">
+        <v>5358.4</v>
+      </c>
+      <c r="I45">
+        <v>154</v>
+      </c>
+      <c r="J45">
+        <v>1588.1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>495.9</v>
+      </c>
+      <c r="O45">
+        <v>2734.9</v>
+      </c>
+      <c r="P45">
+        <v>1704.6</v>
+      </c>
+      <c r="Q45">
+        <v>-108.4</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>3010</v>
+      </c>
+      <c r="T45">
+        <v>2623.5</v>
+      </c>
+      <c r="U45">
+        <v>715.5</v>
+      </c>
+      <c r="V45">
+        <v>90.2</v>
+      </c>
+      <c r="W45">
+        <v>-11.9</v>
+      </c>
+      <c r="X45">
+        <v>-193.8</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-2.6</v>
+      </c>
+      <c r="AA45">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>27.7</v>
+      </c>
+      <c r="D46">
+        <v>906.6</v>
+      </c>
+      <c r="E46">
+        <v>17.8</v>
+      </c>
+      <c r="F46">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="G46">
+        <v>5167.5</v>
+      </c>
+      <c r="H46">
+        <v>5363.4</v>
+      </c>
+      <c r="I46">
+        <v>143.4</v>
+      </c>
+      <c r="J46">
+        <v>1582.3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-12.6</v>
+      </c>
+      <c r="N46">
+        <v>498.8</v>
+      </c>
+      <c r="O46">
+        <v>2711.1</v>
+      </c>
+      <c r="P46">
+        <v>1728.3</v>
+      </c>
+      <c r="Q46">
+        <v>5.5</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2652.3</v>
+      </c>
+      <c r="U46">
+        <v>721.1</v>
+      </c>
+      <c r="V46">
+        <v>-1.7</v>
+      </c>
+      <c r="W46">
+        <v>-11.9</v>
+      </c>
+      <c r="X46">
+        <v>9.6</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-2.9</v>
+      </c>
+      <c r="AA46">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>40.6</v>
+      </c>
+      <c r="D47">
+        <v>961.2</v>
+      </c>
+      <c r="E47">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F47">
+        <v>172.9</v>
+      </c>
+      <c r="G47">
+        <v>5287.7</v>
+      </c>
+      <c r="H47">
+        <v>5484.9</v>
+      </c>
+      <c r="I47">
+        <v>166.1</v>
+      </c>
+      <c r="J47">
+        <v>1421.2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>724.7</v>
+      </c>
+      <c r="O47">
+        <v>2781.9</v>
+      </c>
+      <c r="P47">
+        <v>1756.7</v>
+      </c>
+      <c r="Q47">
+        <v>-58.3</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2703</v>
+      </c>
+      <c r="U47">
+        <v>662.2</v>
+      </c>
+      <c r="V47">
+        <v>-77.7</v>
+      </c>
+      <c r="W47">
+        <v>-11.9</v>
+      </c>
+      <c r="X47">
+        <v>22.6</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-2.4</v>
+      </c>
+      <c r="AA47">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>787.9</v>
+      </c>
+      <c r="D48">
+        <v>1150</v>
+      </c>
+      <c r="E48">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F48">
+        <v>214.7</v>
+      </c>
+      <c r="G48">
+        <v>5732</v>
+      </c>
+      <c r="H48">
+        <v>6657</v>
+      </c>
+      <c r="I48">
+        <v>186.3</v>
+      </c>
+      <c r="J48">
+        <v>1776.9</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>734</v>
+      </c>
+      <c r="O48">
+        <v>3165.4</v>
+      </c>
+      <c r="P48">
+        <v>2095.3000000000002</v>
+      </c>
+      <c r="Q48">
+        <v>225.1</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3491.6</v>
+      </c>
+      <c r="U48">
+        <v>884.3</v>
+      </c>
+      <c r="V48">
+        <v>-94.6</v>
+      </c>
+      <c r="W48">
+        <v>-12</v>
+      </c>
+      <c r="X48">
+        <v>325.39999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>13.4</v>
+      </c>
+      <c r="AA48">
+        <v>787.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>100.1</v>
+      </c>
+      <c r="D49">
+        <v>1336.2</v>
+      </c>
+      <c r="E49">
+        <v>21.9</v>
+      </c>
+      <c r="F49">
+        <v>247.4</v>
+      </c>
+      <c r="G49">
+        <v>6282.3</v>
+      </c>
+      <c r="H49">
+        <v>7248.2</v>
+      </c>
+      <c r="I49">
+        <v>216.2</v>
+      </c>
+      <c r="J49">
+        <v>2133.6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>915.6</v>
+      </c>
+      <c r="O49">
+        <v>3653.5</v>
+      </c>
+      <c r="P49">
+        <v>2493.1</v>
+      </c>
+      <c r="Q49">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>3477</v>
+      </c>
+      <c r="T49">
+        <v>3594.7</v>
+      </c>
+      <c r="U49">
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="V49">
+        <v>-119.4</v>
+      </c>
+      <c r="W49">
+        <v>-12</v>
+      </c>
+      <c r="X49">
+        <v>393.9</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>66.3</v>
+      </c>
+      <c r="D50">
+        <v>1275.0999999999999</v>
+      </c>
+      <c r="E50">
+        <v>19.5</v>
+      </c>
+      <c r="F50">
+        <v>249.9</v>
+      </c>
+      <c r="G50">
+        <v>6377.3</v>
+      </c>
+      <c r="H50">
+        <v>7347.3</v>
+      </c>
+      <c r="I50">
+        <v>241.8</v>
+      </c>
+      <c r="J50">
+        <v>2252.6</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N50">
+        <v>836.3</v>
+      </c>
+      <c r="O50">
+        <v>3734.2</v>
+      </c>
+      <c r="P50">
+        <v>2593.6999999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-480.8</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3613.1</v>
+      </c>
+      <c r="U50">
+        <v>546.4</v>
+      </c>
+      <c r="V50">
+        <v>-656.5</v>
+      </c>
+      <c r="W50">
+        <v>-60.2</v>
+      </c>
+      <c r="X50">
+        <v>23.5</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>181.3</v>
+      </c>
+      <c r="AA50">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>1431.6</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>297.7</v>
+      </c>
+      <c r="G51">
+        <v>7261.9</v>
+      </c>
+      <c r="H51">
+        <v>8232.5</v>
+      </c>
+      <c r="I51">
+        <v>262.7</v>
+      </c>
+      <c r="J51">
+        <v>2855.5</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>982.2</v>
+      </c>
+      <c r="O51">
+        <v>4488.8</v>
+      </c>
+      <c r="P51">
+        <v>3273</v>
+      </c>
+      <c r="Q51">
+        <v>583.6</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3743.7</v>
+      </c>
+      <c r="U51">
+        <v>1127.7</v>
+      </c>
+      <c r="V51">
+        <v>-183.8</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>681.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>96.6</v>
+      </c>
+      <c r="AA51">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>145.9</v>
+      </c>
+      <c r="D52">
+        <v>1692.8</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>369.6</v>
+      </c>
+      <c r="G52">
+        <v>7340.8</v>
+      </c>
+      <c r="H52">
+        <v>8287</v>
+      </c>
+      <c r="I52">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="J52">
+        <v>2863.9</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>853.5</v>
+      </c>
+      <c r="O52">
+        <v>4379.5</v>
+      </c>
+      <c r="P52">
+        <v>3083.6</v>
+      </c>
+      <c r="Q52">
+        <v>-512.5</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3907.5</v>
+      </c>
+      <c r="U52">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="V52">
+        <v>-296</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-187.5</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1.4</v>
+      </c>
+      <c r="AA52">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>139.5</v>
+      </c>
+      <c r="D53">
+        <v>1859.9</v>
+      </c>
+      <c r="E53">
+        <v>24.1</v>
+      </c>
+      <c r="F53">
+        <v>411.8</v>
+      </c>
+      <c r="G53">
+        <v>7988.8</v>
+      </c>
+      <c r="H53">
+        <v>8856.4</v>
+      </c>
+      <c r="I53">
+        <v>346.4</v>
+      </c>
+      <c r="J53">
+        <v>2508.1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1728.2</v>
+      </c>
+      <c r="O53">
+        <v>4795</v>
+      </c>
+      <c r="P53">
+        <v>3509</v>
+      </c>
+      <c r="Q53">
+        <v>300.3</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>4609</v>
+      </c>
+      <c r="T53">
+        <v>4061.4</v>
+      </c>
+      <c r="U53">
+        <v>954.2</v>
+      </c>
+      <c r="V53">
+        <v>-93</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>421.4</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>123.2</v>
+      </c>
+      <c r="D54">
+        <v>1670.6</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>372.4</v>
+      </c>
+      <c r="G54">
+        <v>8022.5</v>
+      </c>
+      <c r="H54">
+        <v>8927.2000000000007</v>
+      </c>
+      <c r="I54">
+        <v>342.1</v>
+      </c>
+      <c r="J54">
+        <v>2505.5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-55.8</v>
+      </c>
+      <c r="N54">
+        <v>1679.3</v>
+      </c>
+      <c r="O54">
+        <v>4727.3</v>
+      </c>
+      <c r="P54">
+        <v>3461.9</v>
+      </c>
+      <c r="Q54">
+        <v>-116.6</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4199.8999999999996</v>
+      </c>
+      <c r="U54">
+        <v>801.1</v>
+      </c>
+      <c r="V54">
+        <v>-7.7</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-51.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>130.9</v>
+      </c>
+      <c r="D55">
+        <v>1735</v>
+      </c>
+      <c r="E55">
+        <v>23.8</v>
+      </c>
+      <c r="F55">
+        <v>391.4</v>
+      </c>
+      <c r="G55">
+        <v>8465.2999999999993</v>
+      </c>
+      <c r="H55">
+        <v>9372.7999999999993</v>
+      </c>
+      <c r="I55">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="J55">
+        <v>3004.8</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1486.4</v>
+      </c>
+      <c r="O55">
+        <v>5023.2</v>
+      </c>
+      <c r="P55">
+        <v>3862.1</v>
+      </c>
+      <c r="Q55">
+        <v>132.6</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4349.6000000000004</v>
+      </c>
+      <c r="U55">
+        <v>930.8</v>
+      </c>
+      <c r="V55">
+        <v>-258.10000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-12.1</v>
+      </c>
+      <c r="X55">
+        <v>404.4</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>113.2</v>
+      </c>
+      <c r="D56">
+        <v>2147</v>
+      </c>
+      <c r="E56">
+        <v>29.7</v>
+      </c>
+      <c r="F56">
+        <v>447.4</v>
+      </c>
+      <c r="G56">
+        <v>8713</v>
+      </c>
+      <c r="H56">
+        <v>9716.6</v>
+      </c>
+      <c r="I56">
+        <v>375.6</v>
+      </c>
+      <c r="J56">
+        <v>3004.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1198.8</v>
+      </c>
+      <c r="O56">
+        <v>4746.7</v>
+      </c>
+      <c r="P56">
+        <v>3445.3</v>
+      </c>
+      <c r="Q56">
+        <v>-376.1</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4969.8999999999996</v>
+      </c>
+      <c r="U56">
+        <v>538.5</v>
+      </c>
+      <c r="V56">
+        <v>-307.89999999999998</v>
+      </c>
+      <c r="W56">
+        <v>-13.7</v>
+      </c>
+      <c r="X56">
+        <v>78.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>166.2</v>
+      </c>
+      <c r="D57">
+        <v>2482.6</v>
+      </c>
+      <c r="E57">
+        <v>38.6</v>
+      </c>
+      <c r="F57">
+        <v>509.2</v>
+      </c>
+      <c r="G57">
+        <v>9180.2000000000007</v>
+      </c>
+      <c r="H57">
+        <v>10185.4</v>
+      </c>
+      <c r="I57">
+        <v>480.3</v>
+      </c>
+      <c r="J57">
+        <v>3148.8</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1365.5</v>
+      </c>
+      <c r="O57">
+        <v>5065.7</v>
+      </c>
+      <c r="P57">
+        <v>3665.7</v>
+      </c>
+      <c r="Q57">
+        <v>44.5</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>5621</v>
+      </c>
+      <c r="T57">
+        <v>5119.7</v>
+      </c>
+      <c r="U57">
+        <v>632.5</v>
+      </c>
+      <c r="V57">
+        <v>-87.7</v>
+      </c>
+      <c r="W57">
+        <v>-22.8</v>
+      </c>
+      <c r="X57">
+        <v>196.6</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>166.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>142.5</v>
+      </c>
+      <c r="D58">
+        <v>2302.6</v>
+      </c>
+      <c r="E58">
+        <v>38.4</v>
+      </c>
+      <c r="F58">
+        <v>459.2</v>
+      </c>
+      <c r="G58">
+        <v>9350.7000000000007</v>
+      </c>
+      <c r="H58">
+        <v>10338.700000000001</v>
+      </c>
+      <c r="I58">
+        <v>400.4</v>
+      </c>
+      <c r="J58">
+        <v>3245.4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-450.9</v>
+      </c>
+      <c r="N58">
+        <v>1283.0999999999999</v>
+      </c>
+      <c r="O58">
+        <v>5074.8999999999996</v>
+      </c>
+      <c r="P58">
+        <v>3726.8</v>
+      </c>
+      <c r="Q58">
+        <v>-120.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5263.8</v>
+      </c>
+      <c r="U58">
+        <v>517.70000000000005</v>
+      </c>
+      <c r="V58">
+        <v>-129</v>
+      </c>
+      <c r="W58">
+        <v>-22.8</v>
+      </c>
+      <c r="X58">
+        <v>22.1</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>147.9</v>
+      </c>
+      <c r="D59">
+        <v>2398</v>
+      </c>
+      <c r="E59">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>480.5</v>
+      </c>
+      <c r="G59">
+        <v>9716.7999999999993</v>
+      </c>
+      <c r="H59">
+        <v>10713.1</v>
+      </c>
+      <c r="I59">
+        <v>451.9</v>
+      </c>
+      <c r="J59">
+        <v>3548</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1197</v>
+      </c>
+      <c r="O59">
+        <v>5292.1</v>
+      </c>
+      <c r="P59">
+        <v>3945.5</v>
+      </c>
+      <c r="Q59">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5421</v>
+      </c>
+      <c r="U59">
+        <v>665.8</v>
+      </c>
+      <c r="V59">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="W59">
+        <v>-22.9</v>
+      </c>
+      <c r="X59">
+        <v>211.9</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>221.4</v>
+      </c>
+      <c r="D60">
+        <v>2950.8</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>603.1</v>
+      </c>
+      <c r="G60">
+        <v>9837.4</v>
+      </c>
+      <c r="H60">
+        <v>10863.5</v>
+      </c>
+      <c r="I60">
+        <v>462.1</v>
+      </c>
+      <c r="J60">
+        <v>3373.1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1318.8</v>
+      </c>
+      <c r="O60">
+        <v>5232.5</v>
+      </c>
+      <c r="P60">
+        <v>3821.1</v>
+      </c>
+      <c r="Q60">
+        <v>107.9</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5631</v>
+      </c>
+      <c r="U60">
+        <v>766.7</v>
+      </c>
+      <c r="V60">
+        <v>357.4</v>
+      </c>
+      <c r="W60">
+        <v>-22.9</v>
+      </c>
+      <c r="X60">
+        <v>-144</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-14.8</v>
+      </c>
+      <c r="AA60">
+        <v>221.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>238.9</v>
+      </c>
+      <c r="D61">
+        <v>3172.4</v>
+      </c>
+      <c r="E61">
+        <v>49.2</v>
+      </c>
+      <c r="F61">
+        <v>645.79999999999995</v>
+      </c>
+      <c r="G61">
+        <v>10187.9</v>
+      </c>
+      <c r="H61">
+        <v>11151</v>
+      </c>
+      <c r="I61">
+        <v>473</v>
+      </c>
+      <c r="J61">
+        <v>2791</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1919.8</v>
+      </c>
+      <c r="O61">
+        <v>5255.6</v>
+      </c>
+      <c r="P61">
+        <v>3811.5</v>
+      </c>
+      <c r="Q61">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>6230</v>
+      </c>
+      <c r="T61">
+        <v>5895.4</v>
+      </c>
+      <c r="U61">
+        <v>1354.8</v>
+      </c>
+      <c r="V61">
+        <v>511.8</v>
+      </c>
+      <c r="W61">
+        <v>-23</v>
+      </c>
+      <c r="X61">
+        <v>27</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>238.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="D62">
+        <v>2416.4</v>
+      </c>
+      <c r="E62">
+        <v>29.9</v>
+      </c>
+      <c r="F62">
+        <v>483.3</v>
+      </c>
+      <c r="G62">
+        <v>10229.299999999999</v>
+      </c>
+      <c r="H62">
+        <v>11179.5</v>
+      </c>
+      <c r="I62">
+        <v>415.6</v>
+      </c>
+      <c r="J62">
+        <v>2794.4</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-81</v>
+      </c>
+      <c r="N62">
+        <v>1779.2</v>
+      </c>
+      <c r="O62">
+        <v>5119</v>
+      </c>
+      <c r="P62">
+        <v>3734.3</v>
+      </c>
+      <c r="Q62">
+        <v>-115.1</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6325</v>
+      </c>
+      <c r="T62">
+        <v>6060.5</v>
+      </c>
+      <c r="U62">
+        <v>1245.7</v>
+      </c>
+      <c r="V62">
+        <v>-1.5</v>
+      </c>
+      <c r="W62">
+        <v>-29.6</v>
+      </c>
+      <c r="X62">
+        <v>-91.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>195.1</v>
+      </c>
+      <c r="D63">
+        <v>2767.9</v>
+      </c>
+      <c r="E63">
+        <v>24.5</v>
+      </c>
+      <c r="F63">
+        <v>553.5</v>
+      </c>
+      <c r="G63">
+        <v>10393</v>
+      </c>
+      <c r="H63">
+        <v>11300.2</v>
+      </c>
+      <c r="I63">
+        <v>499.8</v>
+      </c>
+      <c r="J63">
+        <v>2445.5</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2083.6</v>
+      </c>
+      <c r="O63">
+        <v>5051.2</v>
+      </c>
+      <c r="P63">
+        <v>3662.7</v>
+      </c>
+      <c r="Q63">
+        <v>-44.6</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>6465</v>
+      </c>
+      <c r="T63">
+        <v>6249</v>
+      </c>
+      <c r="U63">
+        <v>1195.2</v>
+      </c>
+      <c r="V63">
+        <v>28.4</v>
+      </c>
+      <c r="W63">
+        <v>-29.6</v>
+      </c>
+      <c r="X63">
+        <v>-88.5</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AA63">
+        <v>195.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>249.8</v>
+      </c>
+      <c r="D64">
+        <v>3231.9</v>
+      </c>
+      <c r="E64">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F64">
+        <v>664.1</v>
+      </c>
+      <c r="G64">
+        <v>10423</v>
+      </c>
+      <c r="H64">
+        <v>11333.2</v>
+      </c>
+      <c r="I64">
+        <v>568.20000000000005</v>
+      </c>
+      <c r="J64">
+        <v>2797.1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1494.1</v>
+      </c>
+      <c r="O64">
+        <v>4820.3999999999996</v>
+      </c>
+      <c r="P64">
+        <v>3301.3</v>
+      </c>
+      <c r="Q64">
+        <v>-317.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>6720</v>
+      </c>
+      <c r="T64">
+        <v>6512.8</v>
+      </c>
+      <c r="U64">
+        <v>862.9</v>
+      </c>
+      <c r="V64">
+        <v>61.7</v>
+      </c>
+      <c r="W64">
+        <v>-29.7</v>
+      </c>
+      <c r="X64">
+        <v>-358.5</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>249.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>283.7</v>
+      </c>
+      <c r="D65">
+        <v>3741.2</v>
+      </c>
+      <c r="E65">
+        <v>35.9</v>
+      </c>
+      <c r="F65">
+        <v>776.1</v>
+      </c>
+      <c r="G65">
+        <v>10690.7</v>
+      </c>
+      <c r="H65">
+        <v>11558.9</v>
+      </c>
+      <c r="I65">
+        <v>537</v>
+      </c>
+      <c r="J65">
+        <v>2448.8000000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1800.8</v>
+      </c>
+      <c r="O65">
+        <v>4765.8999999999996</v>
+      </c>
+      <c r="P65">
+        <v>3271.3</v>
+      </c>
+      <c r="Q65">
+        <v>396.4</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>6976</v>
+      </c>
+      <c r="T65">
+        <v>6793</v>
+      </c>
+      <c r="U65">
+        <v>1271.8</v>
+      </c>
+      <c r="V65">
+        <v>529.4</v>
+      </c>
+      <c r="W65">
+        <v>-29.8</v>
+      </c>
+      <c r="X65">
+        <v>-47.6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>283.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>206.9</v>
+      </c>
+      <c r="D66">
+        <v>2904.2</v>
+      </c>
+      <c r="E66">
+        <v>31</v>
+      </c>
+      <c r="F66">
+        <v>584.70000000000005</v>
+      </c>
+      <c r="G66">
+        <v>10836.9</v>
+      </c>
+      <c r="H66">
+        <v>11712.1</v>
+      </c>
+      <c r="I66">
+        <v>505.9</v>
+      </c>
+      <c r="J66">
+        <v>2448.9</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-54.3</v>
+      </c>
+      <c r="N66">
+        <v>1766.6</v>
+      </c>
+      <c r="O66">
+        <v>4730.3</v>
+      </c>
+      <c r="P66">
+        <v>3217.6</v>
+      </c>
+      <c r="Q66">
+        <v>-152.9</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7109</v>
+      </c>
+      <c r="T66">
+        <v>6981.8</v>
+      </c>
+      <c r="U66">
+        <v>1115.5</v>
+      </c>
+      <c r="V66">
+        <v>-28.2</v>
+      </c>
+      <c r="W66">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="X66">
+        <v>-93.4</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>206.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>229.2</v>
+      </c>
+      <c r="D67">
+        <v>3251.3</v>
+      </c>
+      <c r="E67">
+        <v>31.8</v>
+      </c>
+      <c r="F67">
+        <v>656.1</v>
+      </c>
+      <c r="G67">
+        <v>11038.3</v>
+      </c>
+      <c r="H67">
+        <v>11921.1</v>
+      </c>
+      <c r="I67">
+        <v>530.29999999999995</v>
+      </c>
+      <c r="J67">
+        <v>2453.5</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1714.5</v>
+      </c>
+      <c r="O67">
+        <v>4701</v>
+      </c>
+      <c r="P67">
+        <v>3222.4</v>
+      </c>
+      <c r="Q67">
+        <v>-157.1</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>7358</v>
+      </c>
+      <c r="T67">
+        <v>7220.1</v>
+      </c>
+      <c r="U67">
+        <v>947.9</v>
+      </c>
+      <c r="V67">
+        <v>-107.5</v>
+      </c>
+      <c r="W67">
+        <v>-37.4</v>
+      </c>
+      <c r="X67">
+        <v>-7.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-3.9</v>
+      </c>
+      <c r="AA67">
+        <v>229.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>289</v>
+      </c>
+      <c r="D68">
+        <v>3776.4</v>
+      </c>
+      <c r="E68">
+        <v>39.4</v>
+      </c>
+      <c r="F68">
+        <v>758.3</v>
+      </c>
+      <c r="G68">
+        <v>11134.6</v>
+      </c>
+      <c r="H68">
+        <v>11977.1</v>
+      </c>
+      <c r="I68">
+        <v>602.6</v>
+      </c>
+      <c r="J68">
+        <v>2453.1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1542.5</v>
+      </c>
+      <c r="O68">
+        <v>4540.3999999999996</v>
+      </c>
+      <c r="P68">
+        <v>2926.5</v>
+      </c>
+      <c r="Q68">
+        <v>-480.8</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>7682</v>
+      </c>
+      <c r="T68">
+        <v>7436.7</v>
+      </c>
+      <c r="U68">
+        <v>460.8</v>
+      </c>
+      <c r="V68">
+        <v>-50</v>
+      </c>
+      <c r="W68">
+        <v>-37.5</v>
+      </c>
+      <c r="X68">
+        <v>-383.2</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AA68">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>313.3</v>
+      </c>
+      <c r="D69">
+        <v>4159.1000000000004</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>864.2</v>
+      </c>
+      <c r="G69">
+        <v>10848.7</v>
+      </c>
+      <c r="H69">
+        <v>12184.6</v>
+      </c>
+      <c r="I69">
+        <v>578.9</v>
+      </c>
+      <c r="J69">
+        <v>2051.9</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2385.1</v>
+      </c>
+      <c r="O69">
+        <v>4437</v>
+      </c>
+      <c r="P69">
+        <v>2871.6</v>
+      </c>
+      <c r="Q69">
+        <v>495.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>7735</v>
+      </c>
+      <c r="T69">
+        <v>7747.6</v>
+      </c>
+      <c r="U69">
+        <v>983.7</v>
+      </c>
+      <c r="V69">
+        <v>625.9</v>
+      </c>
+      <c r="W69">
+        <v>-37.4</v>
+      </c>
+      <c r="X69">
+        <v>-80.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>313.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>189.3</v>
+      </c>
+      <c r="D70">
+        <v>3332.7</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>695.2</v>
+      </c>
+      <c r="G70">
+        <v>12083.2</v>
+      </c>
+      <c r="H70">
+        <v>12957.3</v>
+      </c>
+      <c r="I70">
+        <v>574.1</v>
+      </c>
+      <c r="J70">
+        <v>2870.6</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-858.4</v>
+      </c>
+      <c r="N70">
+        <v>1470.1</v>
+      </c>
+      <c r="O70">
+        <v>4901.8999999999996</v>
+      </c>
+      <c r="P70">
+        <v>3258.1</v>
+      </c>
+      <c r="Q70">
+        <v>-50.3</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>8055.4</v>
+      </c>
+      <c r="U70">
+        <v>895.8</v>
+      </c>
+      <c r="V70">
+        <v>-75</v>
+      </c>
+      <c r="W70">
+        <v>-47</v>
+      </c>
+      <c r="X70">
+        <v>185.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>14.9</v>
+      </c>
+      <c r="AA70">
+        <v>189.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>351</v>
+      </c>
+      <c r="D71">
+        <v>3794.7</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>799.7</v>
+      </c>
+      <c r="G71">
+        <v>12379.1</v>
+      </c>
+      <c r="H71">
+        <v>13218.1</v>
+      </c>
+      <c r="I71">
+        <v>579.70000000000005</v>
+      </c>
+      <c r="J71">
+        <v>2744.1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1510.9</v>
+      </c>
+      <c r="O71">
+        <v>4846.2</v>
+      </c>
+      <c r="P71">
+        <v>3233.9</v>
+      </c>
+      <c r="Q71">
+        <v>92.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8371.9</v>
+      </c>
+      <c r="U71">
+        <v>981.7</v>
+      </c>
+      <c r="V71">
+        <v>-23.8</v>
+      </c>
+      <c r="W71">
+        <v>-47.1</v>
+      </c>
+      <c r="X71">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0.2</v>
+      </c>
+      <c r="AA71">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>453.8</v>
+      </c>
+      <c r="D72">
+        <v>4435.3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>980.2</v>
+      </c>
+      <c r="G72">
+        <v>12765.7</v>
+      </c>
+      <c r="H72">
+        <v>13593.4</v>
+      </c>
+      <c r="I72">
+        <v>655.29999999999995</v>
+      </c>
+      <c r="J72">
+        <v>2567.3000000000002</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1699.2</v>
+      </c>
+      <c r="O72">
+        <v>4823.5</v>
+      </c>
+      <c r="P72">
+        <v>3093.6</v>
+      </c>
+      <c r="Q72">
+        <v>170.7</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8769.9</v>
+      </c>
+      <c r="U72">
+        <v>1135.0999999999999</v>
+      </c>
+      <c r="V72">
+        <v>405.3</v>
+      </c>
+      <c r="W72">
+        <v>-47.2</v>
+      </c>
+      <c r="X72">
+        <v>-210.7</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0.3</v>
+      </c>
+      <c r="AA72">
+        <v>453.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>466.2</v>
+      </c>
+      <c r="D73">
+        <v>4505.1000000000004</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>985.2</v>
+      </c>
+      <c r="G73">
+        <v>13315.8</v>
+      </c>
+      <c r="H73">
+        <v>14114.6</v>
+      </c>
+      <c r="I73">
+        <v>624.70000000000005</v>
+      </c>
+      <c r="J73">
+        <v>2066.1999999999998</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2350</v>
+      </c>
+      <c r="O73">
+        <v>4955.7</v>
+      </c>
+      <c r="P73">
+        <v>3203.5</v>
+      </c>
+      <c r="Q73">
+        <v>269.10000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>8437</v>
+      </c>
+      <c r="T73">
+        <v>9158.9</v>
+      </c>
+      <c r="U73">
+        <v>1439.4</v>
+      </c>
+      <c r="V73">
+        <v>238.7</v>
+      </c>
+      <c r="W73">
+        <v>-47.1</v>
+      </c>
+      <c r="X73">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>9.4</v>
+      </c>
+      <c r="AA73">
+        <v>466.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>287.2</v>
+      </c>
+      <c r="D74">
+        <v>3519</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>710.4</v>
+      </c>
+      <c r="G74">
+        <v>13704.5</v>
+      </c>
+      <c r="H74">
+        <v>14535.8</v>
+      </c>
+      <c r="I74">
+        <v>686.6</v>
+      </c>
+      <c r="J74">
+        <v>2368.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-439.9</v>
+      </c>
+      <c r="N74">
+        <v>2308.1999999999998</v>
+      </c>
+      <c r="O74">
+        <v>5237.6000000000004</v>
+      </c>
+      <c r="P74">
+        <v>3342.3</v>
+      </c>
+      <c r="Q74">
+        <v>-737.7</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>9298.2000000000007</v>
+      </c>
+      <c r="U74">
+        <v>704.2</v>
+      </c>
+      <c r="V74">
+        <v>-373.1</v>
+      </c>
+      <c r="W74">
+        <v>-56</v>
+      </c>
+      <c r="X74">
+        <v>-54.2</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA74">
+        <v>287.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>351.2</v>
+      </c>
+      <c r="D75">
+        <v>4128.7</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>818.2</v>
+      </c>
+      <c r="G75">
+        <v>14126.6</v>
+      </c>
+      <c r="H75">
+        <v>15007</v>
+      </c>
+      <c r="I75">
+        <v>658.5</v>
+      </c>
+      <c r="J75">
+        <v>2931.7</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1967.4</v>
+      </c>
+      <c r="O75">
+        <v>5473</v>
+      </c>
+      <c r="P75">
+        <v>3622.4</v>
+      </c>
+      <c r="Q75">
+        <v>-37.1</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9534</v>
+      </c>
+      <c r="U75">
+        <v>637.70000000000005</v>
+      </c>
+      <c r="V75">
+        <v>-88.6</v>
+      </c>
+      <c r="W75">
+        <v>-55.9</v>
+      </c>
+      <c r="X75">
+        <v>62.2</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>351.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>474.8</v>
+      </c>
+      <c r="D76">
+        <v>4906.3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1022.4</v>
+      </c>
+      <c r="G76">
+        <v>14312.7</v>
+      </c>
+      <c r="H76">
+        <v>15224</v>
+      </c>
+      <c r="I76">
+        <v>681.2</v>
+      </c>
+      <c r="J76">
+        <v>2654.1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2126.8000000000002</v>
+      </c>
+      <c r="O76">
+        <v>5409.3</v>
+      </c>
+      <c r="P76">
+        <v>3450.6</v>
+      </c>
+      <c r="Q76">
+        <v>154.1</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9814.7000000000007</v>
+      </c>
+      <c r="U76">
+        <v>819.5</v>
+      </c>
+      <c r="V76">
+        <v>542.4</v>
+      </c>
+      <c r="W76">
+        <v>-56</v>
+      </c>
+      <c r="X76">
+        <v>-383.1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>474.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>505.3</v>
+      </c>
+      <c r="D77">
+        <v>5038.8999999999996</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1095.8</v>
+      </c>
+      <c r="G77">
+        <v>14704.5</v>
+      </c>
+      <c r="H77">
+        <v>15606.6</v>
+      </c>
+      <c r="I77">
+        <v>627</v>
+      </c>
+      <c r="J77">
+        <v>1492.9</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3231.2</v>
+      </c>
+      <c r="O77">
+        <v>5311.5</v>
+      </c>
+      <c r="P77">
+        <v>3399.4</v>
+      </c>
+      <c r="Q77">
+        <v>628.70000000000005</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>8916</v>
+      </c>
+      <c r="T77">
+        <v>10295.1</v>
+      </c>
+      <c r="U77">
+        <v>1450.9</v>
+      </c>
+      <c r="V77">
+        <v>811.4</v>
+      </c>
+      <c r="W77">
+        <v>-55.5</v>
+      </c>
+      <c r="X77">
+        <v>-115</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>505.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>431.3</v>
+      </c>
+      <c r="D78">
+        <v>4020.7</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>864.1</v>
+      </c>
+      <c r="G78">
+        <v>15350.8</v>
+      </c>
+      <c r="H78">
+        <v>16322.9</v>
+      </c>
+      <c r="I78">
+        <v>657.9</v>
+      </c>
+      <c r="J78">
+        <v>1915.1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-38.6</v>
+      </c>
+      <c r="N78">
+        <v>3281.8</v>
+      </c>
+      <c r="O78">
+        <v>5820</v>
+      </c>
+      <c r="P78">
+        <v>3820.9</v>
+      </c>
+      <c r="Q78">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>10502.9</v>
+      </c>
+      <c r="U78">
+        <v>1545.8</v>
+      </c>
+      <c r="V78">
+        <v>-113.8</v>
+      </c>
+      <c r="W78">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="X78">
+        <v>213.5</v>
+      </c>
+      <c r="Y78">
+        <v>37.6</v>
+      </c>
+      <c r="Z78">
+        <v>1.9</v>
+      </c>
+      <c r="AA78">
+        <v>431.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>482.7</v>
+      </c>
+      <c r="D79">
+        <v>4500</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>978.3</v>
+      </c>
+      <c r="G79">
+        <v>16001.7</v>
+      </c>
+      <c r="H79">
+        <v>17130</v>
+      </c>
+      <c r="I79">
+        <v>706.8</v>
+      </c>
+      <c r="J79">
+        <v>2720.7</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>3029.7</v>
+      </c>
+      <c r="O79">
+        <v>6395.2</v>
+      </c>
+      <c r="P79">
+        <v>4428.6000000000004</v>
+      </c>
+      <c r="Q79">
+        <v>-58.6</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10734.8</v>
+      </c>
+      <c r="U79">
+        <v>1477</v>
+      </c>
+      <c r="V79">
+        <v>-281.3</v>
+      </c>
+      <c r="W79">
+        <v>-64.099999999999994</v>
+      </c>
+      <c r="X79">
+        <v>239.5</v>
+      </c>
+      <c r="Y79">
+        <v>40.5</v>
+      </c>
+      <c r="Z79">
+        <v>0.5</v>
+      </c>
+      <c r="AA79">
+        <v>482.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>630.70000000000005</v>
+      </c>
+      <c r="D80">
+        <v>5390</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1222.5</v>
+      </c>
+      <c r="G80">
+        <v>16866.599999999999</v>
+      </c>
+      <c r="H80">
+        <v>17973.900000000001</v>
+      </c>
+      <c r="I80">
+        <v>761.1</v>
+      </c>
+      <c r="J80">
+        <v>2724.8</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3249.8</v>
+      </c>
+      <c r="O80">
+        <v>6646.8</v>
+      </c>
+      <c r="P80">
+        <v>4372</v>
+      </c>
+      <c r="Q80">
+        <v>835.4</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>11327.1</v>
+      </c>
+      <c r="U80">
+        <v>2278.4</v>
+      </c>
+      <c r="V80">
+        <v>984</v>
+      </c>
+      <c r="W80">
+        <v>-63.6</v>
+      </c>
+      <c r="X80">
+        <v>-82.8</v>
+      </c>
+      <c r="Y80">
+        <v>38.1</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>630.70000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>829</v>
+      </c>
+      <c r="D81">
+        <v>6400.3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1553.1</v>
+      </c>
+      <c r="G81">
+        <v>17781</v>
+      </c>
+      <c r="H81">
+        <v>18912.3</v>
+      </c>
+      <c r="I81">
+        <v>900.5</v>
+      </c>
+      <c r="J81">
+        <v>2750.9</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3334.8</v>
+      </c>
+      <c r="O81">
+        <v>6790.8</v>
+      </c>
+      <c r="P81">
+        <v>4336.8</v>
+      </c>
+      <c r="Q81">
+        <v>667.4</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>9716</v>
+      </c>
+      <c r="T81">
+        <v>12121.5</v>
+      </c>
+      <c r="U81">
+        <v>2962.9</v>
+      </c>
+      <c r="V81">
+        <v>832.7</v>
+      </c>
+      <c r="W81">
+        <v>-63.7</v>
+      </c>
+      <c r="X81">
+        <v>-99.6</v>
+      </c>
+      <c r="Y81">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>1.9</v>
+      </c>
+      <c r="AA81">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>791.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5933.4</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>1503.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>18584</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>19780.400000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>845.6</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3244</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>12.5</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-563.6</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>2975.1</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>7010.1</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4302.3999999999996</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-565.20000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>12770.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2389.6</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-252.1</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-72.900000000000006</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-221.7</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>35.5</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>2.1</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>791.8</v>
       </c>
     </row>
